--- a/Competition_Results.xlsx
+++ b/Competition_Results.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Competition_Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Actual Score" sheetId="3" r:id="rId2"/>
+    <sheet name="Predicted Score" sheetId="2" r:id="rId3"/>
+    <sheet name="Shares" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Competition_Results" localSheetId="0">Competition_Results!$A$1:$AI$22</definedName>
@@ -789,11 +792,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Competition_Results!$AH$1</c:f>
+              <c:f>Competition_Results!$AI$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Predicted_Score</c:v>
+                  <c:v>Actual_Score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -872,72 +875,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Competition_Results!$AH$2:$AH$22</c:f>
+              <c:f>Competition_Results!$AI$2:$AI$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>126.591600575266</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.005629458260998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.529365079365</c:v>
+                  <c:v>3.3333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.016075112626801</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.330470295987503</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.020196213345002</c:v>
+                  <c:v>1.6666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.347435897435901</c:v>
+                  <c:v>3.3333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.092140164735397</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.820512820512803</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.139573070607497</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.134875207470401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.430629458261002</c:v>
+                  <c:v>1.6666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.6693781314471</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.677424330055899</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.314189097855099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.1854410562214</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.8786453312769</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.047619047619001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.589756442388001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.5310934276451</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.997949781615802</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,11 +955,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="164887168"/>
-        <c:axId val="165441920"/>
+        <c:axId val="167562624"/>
+        <c:axId val="167568512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164887168"/>
+        <c:axId val="167562624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165441920"/>
+        <c:crossAx val="167568512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165441920"/>
+        <c:axId val="167568512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164887168"/>
+        <c:crossAx val="167562624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -998,11 +1001,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1036,11 +1034,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Competition_Results!$AI$1</c:f>
+              <c:f>Competition_Results!$AH$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual_Score</c:v>
+                  <c:v>Predicted_Score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1119,72 +1117,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Competition_Results!$AI$2:$AI$22</c:f>
+              <c:f>Competition_Results!$AH$2:$AH$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>126.591600575266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>77.005629458260998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3333333333333299</c:v>
+                  <c:v>61.529365079365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>61.016075112626801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>57.330470295987503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6666666666666601</c:v>
+                  <c:v>57.020196213345002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3333333333333299</c:v>
+                  <c:v>56.347435897435901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>40.092140164735397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>36.820512820512803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>36.139573070607497</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>35.134875207470401</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6666666666666601</c:v>
+                  <c:v>33.430629458261002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>28.6693781314471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>26.677424330055899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>26.314189097855099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>25.1854410562214</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>23.8786453312769</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>23.047619047619001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>22.589756442388001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>22.5310934276451</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>21.997949781615802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,11 +1197,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="165556608"/>
-        <c:axId val="165558144"/>
+        <c:axId val="173464192"/>
+        <c:axId val="173465984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165556608"/>
+        <c:axId val="173464192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,7 +1210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165558144"/>
+        <c:crossAx val="173465984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1220,7 +1218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165558144"/>
+        <c:axId val="173465984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165556608"/>
+        <c:crossAx val="173464192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1245,11 +1243,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1497,11 +1490,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="165566336"/>
-        <c:axId val="165567872"/>
+        <c:axId val="167320960"/>
+        <c:axId val="167384192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165566336"/>
+        <c:axId val="167320960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,7 +1503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165567872"/>
+        <c:crossAx val="167384192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1518,7 +1511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165567872"/>
+        <c:axId val="167384192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165566336"/>
+        <c:crossAx val="167320960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,33 +1531,53 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9300882" cy="6079191"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1577,24 +1590,21 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9300882" cy="6079191"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1602,29 +1612,26 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9300882" cy="6079191"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1632,12 +1639,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1934,7 +1941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2967,6 +2974,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Competition_Results.xlsx
+++ b/Competition_Results.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4E9774AE-6C89-4334-A62A-16CE76C5AF4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="26820" windowHeight="11385"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="26820" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competition_Results" sheetId="1" r:id="rId1"/>
@@ -15,14 +21,14 @@
   <definedNames>
     <definedName name="Competition_Results" localSheetId="0">Competition_Results!$A$1:$AI$22</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Competition_Results" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="U:\WorldCup2018\Competition_Results.csv" tab="0" comma="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Competition_Results" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\Jimmy Tarr\Documents\WC18\Competition_Results.csv" tab="0" comma="1">
       <textFields count="35">
         <textField type="text"/>
         <textField/>
@@ -242,8 +248,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,14 +764,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -777,7 +786,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -945,6 +953,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A810-403D-B100-815CC610CA48}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -965,6 +978,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -994,7 +1008,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1005,9 +1018,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1019,7 +1032,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1128,7 +1140,7 @@
                   <c:v>77.005629458260998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.529365079365</c:v>
+                  <c:v>61.079365079364997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>61.016075112626801</c:v>
@@ -1137,10 +1149,10 @@
                   <c:v>57.330470295987503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.020196213345002</c:v>
+                  <c:v>56.795196213345001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.347435897435901</c:v>
+                  <c:v>55.897435897435898</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>40.092140164735397</c:v>
@@ -1155,7 +1167,7 @@
                   <c:v>35.134875207470401</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.430629458261002</c:v>
+                  <c:v>33.205629458261001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>28.6693781314471</c:v>
@@ -1187,6 +1199,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50E7-4D68-B955-781CC14A5835}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1207,6 +1224,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1236,7 +1254,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1247,9 +1264,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1480,6 +1497,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AB9-4B14-87B6-A62726C68EB2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1500,6 +1522,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1535,7 +1558,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
@@ -1546,7 +1569,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
@@ -1557,7 +1580,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
@@ -1574,7 +1597,13 @@
     <xdr:ext cx="9300882" cy="6079191"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1601,7 +1630,13 @@
     <xdr:ext cx="9300882" cy="6079191"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1628,7 +1663,13 @@
     <xdr:ext cx="9300882" cy="6079191"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1649,7 +1690,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Competition_Results" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Competition_Results" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1695,7 +1736,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1728,9 +1769,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1763,6 +1821,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1938,51 +2013,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.75" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2089,7 +2166,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -2145,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2198,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -2227,13 +2304,13 @@
         <v>2</v>
       </c>
       <c r="AH4">
-        <v>61.529365079365</v>
+        <v>61.079365079364997</v>
       </c>
       <c r="AI4">
         <v>3.3333333333333299</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2271,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -2315,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -2368,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>57.020196213345002</v>
+        <v>56.795196213345001</v>
       </c>
       <c r="AI7">
         <v>1.6666666666666601</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -2403,13 +2480,13 @@
         <v>2</v>
       </c>
       <c r="AH8">
-        <v>56.347435897435901</v>
+        <v>55.897435897435898</v>
       </c>
       <c r="AI8">
         <v>3.3333333333333299</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -2432,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2455,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2484,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -2507,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -2539,13 +2616,13 @@
         <v>1</v>
       </c>
       <c r="AH13">
-        <v>33.430629458261002</v>
+        <v>33.205629458261001</v>
       </c>
       <c r="AI13">
         <v>1.6666666666666601</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -2568,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -2603,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2647,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -2685,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -2720,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -2743,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2778,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -2804,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>

--- a/Competition_Results.xlsx
+++ b/Competition_Results.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4E9774AE-6C89-4334-A62A-16CE76C5AF4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{73B51B53-8B98-423D-AB5D-1715D1F8BBBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="26820" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competition_Results" sheetId="1" r:id="rId1"/>
-    <sheet name="Actual Score" sheetId="3" r:id="rId2"/>
-    <sheet name="Predicted Score" sheetId="2" r:id="rId3"/>
-    <sheet name="Shares" sheetId="4" r:id="rId4"/>
+    <sheet name="Points per Share" sheetId="5" r:id="rId2"/>
+    <sheet name="Actual Score" sheetId="3" r:id="rId3"/>
+    <sheet name="Predicted Score" sheetId="2" r:id="rId4"/>
+    <sheet name="Shares" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Competition_Results" localSheetId="0">Competition_Results!$A$1:$AI$22</definedName>
+    <definedName name="Competition_Results" localSheetId="0">Competition_Results!$A$1:$AI$23</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -243,6 +244,12 @@
   </si>
   <si>
     <t>Actual_Score</t>
+  </si>
+  <si>
+    <t>Tpoints</t>
+  </si>
+  <si>
+    <t>Points per share</t>
   </si>
 </sst>
 </file>
@@ -786,6 +793,477 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Points per share</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Competition_Results!$B$1:$AG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Argentina</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Croatia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Egypt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>England</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IR Iran</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Japan</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Korea Republic</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Mexico</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Morocco</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Nigeria</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Panama</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Peru</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Russia</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Saudi Arabia</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Senegal</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Serbia</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Tunisia</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Uruguay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Competition_Results!$B$26:$AG$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1388888888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.26315789473684209</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.17857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34482758620689657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-943F-48F9-BACB-15D5602F8C4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="412811680"/>
+        <c:axId val="412802824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="412811680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412802824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="412802824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412811680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -812,143 +1290,157 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Competition_Results!$A$2:$A$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>Competition_Results!$A$2:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>Jimmy TARR</c:v>
+                  <c:v>Doug HOUGH</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jake MASON</c:v>
+                  <c:v>Mike HORNBY</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Amy MADDISON</c:v>
+                  <c:v>Demi ASTON</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Justin ATKINSON</c:v>
+                  <c:v>Jason CAWDRON</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Kayleigh OCKELFORD</c:v>
+                  <c:v>Hellen FOSTER</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Daniel SCOTT</c:v>
+                  <c:v>Colin HUTCHINGS</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Ian SIMPSON</c:v>
+                  <c:v>Adam LUNNON</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Adam LUNNON</c:v>
+                  <c:v>Gareth ELLIS</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Doug HOUGH</c:v>
+                  <c:v>Fiona ROCHE</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Chris NUTT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Marietta KEANE</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Samuel ANDREWS</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Gareth ELLIS</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Tharaka KOTHALAWALA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Charlotte CURRIE</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Colin HUTCHINGS</c:v>
+                  <c:v>Tharaka KOTHALAWALA</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Fiona ROCHE</c:v>
+                  <c:v>Jake MASON</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Chris NUTT</c:v>
+                  <c:v>Ian SIMPSON</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Jason CAWDRON</c:v>
+                  <c:v>Jimmy TARR</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Mike HORNBY</c:v>
+                  <c:v>Amy MADDISON</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Hellen FOSTER</c:v>
+                  <c:v>Daniel SCOTT</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Demi ASTON</c:v>
+                  <c:v>Kayleigh OCKELFORD</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Marietta KEANE</c:v>
+                  <c:v>Justin ATKINSON</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Competition_Results!$AI$2:$AI$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>Competition_Results!$AI$2:$AI$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.26984126984126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3333333333333299</c:v>
+                  <c:v>1.59003831417624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.0619674185463599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.2536340852130299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6666666666666601</c:v>
+                  <c:v>2.3889515455304902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3333333333333299</c:v>
+                  <c:v>2.43194192377495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.43194192377495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.5960670354045998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.7227306772678799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.73495592429349</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6666666666666601</c:v>
+                  <c:v>2.9039408866995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.53486590038314</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3.93339598997493</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5.1611737677527101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6.9444444444444402</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>7.8119400512776096</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>8.4404761904761898</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>9.5337791317373899</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>10.451970443349699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>12.968609742747599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,7 +1509,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1058,143 +1550,157 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Competition_Results!$A$2:$A$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>Competition_Results!$A$2:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>Jimmy TARR</c:v>
+                  <c:v>Doug HOUGH</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jake MASON</c:v>
+                  <c:v>Mike HORNBY</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Amy MADDISON</c:v>
+                  <c:v>Demi ASTON</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Justin ATKINSON</c:v>
+                  <c:v>Jason CAWDRON</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Kayleigh OCKELFORD</c:v>
+                  <c:v>Hellen FOSTER</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Daniel SCOTT</c:v>
+                  <c:v>Colin HUTCHINGS</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Ian SIMPSON</c:v>
+                  <c:v>Adam LUNNON</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Adam LUNNON</c:v>
+                  <c:v>Gareth ELLIS</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Doug HOUGH</c:v>
+                  <c:v>Fiona ROCHE</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Chris NUTT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Marietta KEANE</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Samuel ANDREWS</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Gareth ELLIS</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Tharaka KOTHALAWALA</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Charlotte CURRIE</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Colin HUTCHINGS</c:v>
+                  <c:v>Tharaka KOTHALAWALA</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Fiona ROCHE</c:v>
+                  <c:v>Jake MASON</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Chris NUTT</c:v>
+                  <c:v>Ian SIMPSON</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Jason CAWDRON</c:v>
+                  <c:v>Jimmy TARR</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Mike HORNBY</c:v>
+                  <c:v>Amy MADDISON</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Hellen FOSTER</c:v>
+                  <c:v>Daniel SCOTT</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Demi ASTON</c:v>
+                  <c:v>Kayleigh OCKELFORD</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Marietta KEANE</c:v>
+                  <c:v>Justin ATKINSON</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Competition_Results!$AH$2:$AH$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>Competition_Results!$AH$2:$AH$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>126.591600575266</c:v>
+                  <c:v>25.603846153846099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.005629458260998</c:v>
+                  <c:v>16.882539682539601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.079365079364997</c:v>
+                  <c:v>22.533775419982302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.016075112626801</c:v>
+                  <c:v>22.9362518475676</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.330470295987503</c:v>
+                  <c:v>21.979029625345401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.795196213345001</c:v>
+                  <c:v>28.579634020949801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.897435897435898</c:v>
+                  <c:v>33.183337986877</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.092140164735397</c:v>
+                  <c:v>33.364961918500903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.820512820512803</c:v>
+                  <c:v>27.948768794222499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.139573070607497</c:v>
+                  <c:v>26.087791472492</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.134875207470401</c:v>
+                  <c:v>23.154751700205399</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.205629458261001</c:v>
+                  <c:v>33.439244663382503</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.6693781314471</c:v>
+                  <c:v>34.069991158267001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.677424330055899</c:v>
+                  <c:v>34.395616926932703</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.314189097855099</c:v>
+                  <c:v>63.282283593599303</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.1854410562214</c:v>
+                  <c:v>59.3863247863247</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.8786453312769</c:v>
+                  <c:v>137.45689455734799</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.047619047619001</c:v>
+                  <c:v>65.002380952380904</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.589756442388001</c:v>
+                  <c:v>68.423670272055006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.5310934276451</c:v>
+                  <c:v>71.185861647930594</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.997949781615802</c:v>
+                  <c:v>83.103042819249694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,7 +1769,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1394,7 +1900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Competition_Results!$B$24:$AG$24</c:f>
+              <c:f>Competition_Results!$B$25:$AG$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1557,11 +2063,554 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D2EE154A-17CC-4E36-AC06-A7CD0F887F8A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1569,10 +2618,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1580,10 +2629,21 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1594,7 +2654,40 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9300882" cy="6079191"/>
+    <xdr:ext cx="9315275" cy="6090757"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F91298-8EB1-41F2-92A4-9C0AD60F6919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306537" cy="6082018"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1623,11 +2716,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9300882" cy="6079191"/>
+    <xdr:ext cx="9306537" cy="6082018"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1656,11 +2749,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9300882" cy="6079191"/>
+    <xdr:ext cx="9306537" cy="6082018"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2014,16 +3107,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
@@ -2168,332 +3261,212 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
       </c>
       <c r="AH2">
-        <v>126.591600575266</v>
+        <v>25.603846153846099</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.83333333333333304</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH3">
-        <v>77.005629458260998</v>
+        <v>16.882539682539601</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1.26984126984126</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
-      <c r="AC4">
-        <v>2</v>
-      </c>
-      <c r="AE4">
-        <v>2</v>
+      <c r="AG4">
+        <v>3</v>
       </c>
       <c r="AH4">
-        <v>61.079365079364997</v>
+        <v>22.533775419982302</v>
       </c>
       <c r="AI4">
-        <v>3.3333333333333299</v>
+        <v>1.59003831417624</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>2</v>
+      <c r="X5">
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH5">
-        <v>61.016075112626801</v>
+        <v>22.9362518475676</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>2.0619674185463599</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
       <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
         <v>1</v>
       </c>
       <c r="AC6">
         <v>2</v>
       </c>
-      <c r="AE6">
-        <v>2</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
       <c r="AH6">
-        <v>57.330470295987503</v>
+        <v>21.979029625345401</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.2536340852130299</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
       <c r="AC7">
         <v>1</v>
       </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
       <c r="AH7">
-        <v>56.795196213345001</v>
+        <v>28.579634020949801</v>
       </c>
       <c r="AI7">
-        <v>1.6666666666666601</v>
+        <v>2.3889515455304902</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <v>2</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
       </c>
       <c r="AH8">
-        <v>55.897435897435898</v>
+        <v>33.183337986877</v>
       </c>
       <c r="AI8">
-        <v>3.3333333333333299</v>
+        <v>2.43194192377495</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9">
+        <v>44</v>
+      </c>
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="K9">
+      <c r="V9">
         <v>4</v>
       </c>
       <c r="X9">
@@ -2503,123 +3476,156 @@
         <v>4</v>
       </c>
       <c r="AH9">
-        <v>40.092140164735397</v>
+        <v>33.364961918500903</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.43194192377495</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
       </c>
       <c r="AH10">
-        <v>36.820512820512803</v>
+        <v>27.948768794222499</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2.5960670354045998</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
-      <c r="W11">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
       </c>
       <c r="AC11">
-        <v>4</v>
-      </c>
-      <c r="AE11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>36.139573070607497</v>
+        <v>26.087791472492</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2.7227306772678799</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="V12">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
       </c>
       <c r="X12">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
       </c>
       <c r="AG12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH12">
-        <v>35.134875207470401</v>
+        <v>23.154751700205399</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>2.73495592429349</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+        <v>43</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="V13">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="W13">
         <v>3</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AE13">
         <v>3</v>
       </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <v>1</v>
+      <c r="AG13">
+        <v>2</v>
       </c>
       <c r="AH13">
-        <v>33.205629458261001</v>
+        <v>33.439244663382503</v>
       </c>
       <c r="AI13">
-        <v>1.6666666666666601</v>
+        <v>2.9039408866995</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2639,30 +3645,30 @@
         <v>4</v>
       </c>
       <c r="AH14">
-        <v>28.6693781314471</v>
+        <v>34.069991158267001</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.53486590038314</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15">
         <v>2</v>
@@ -2670,41 +3676,53 @@
       <c r="X15">
         <v>1</v>
       </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
       <c r="AC15">
         <v>1</v>
       </c>
       <c r="AH15">
-        <v>26.677424330055899</v>
+        <v>34.395616926932703</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.93339598997493</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
       <c r="W16">
         <v>1</v>
       </c>
@@ -2712,344 +3730,673 @@
         <v>1</v>
       </c>
       <c r="AC16">
-        <v>2</v>
-      </c>
-      <c r="AG16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>26.314189097855099</v>
+        <v>63.282283593599303</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>5.1611737677527101</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
         <v>2</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
-      <c r="X17">
-        <v>2</v>
-      </c>
-      <c r="AC17">
-        <v>2</v>
-      </c>
-      <c r="AG17">
-        <v>1</v>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
       </c>
       <c r="AH17">
-        <v>25.1854410562214</v>
+        <v>59.3863247863247</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>6.9444444444444402</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
       <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
         <v>2</v>
       </c>
       <c r="AH18">
-        <v>23.8786453312769</v>
+        <v>137.45689455734799</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>7.8119400512776096</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
       </c>
       <c r="AC19">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AE19">
+        <v>2</v>
       </c>
       <c r="AH19">
-        <v>23.047619047619001</v>
+        <v>65.002380952380904</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>8.4404761904761898</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
       </c>
       <c r="X20">
         <v>1</v>
       </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
       <c r="AC20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
       </c>
       <c r="AH20">
-        <v>22.589756442388001</v>
+        <v>68.423670272055006</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>9.5337791317373899</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
       </c>
       <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>2</v>
+      </c>
+      <c r="AE21">
         <v>2</v>
       </c>
       <c r="AG21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>22.5310934276451</v>
+        <v>71.185861647930594</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>10.451970443349699</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
       <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
         <v>3</v>
       </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <v>2</v>
-      </c>
-      <c r="AG22">
-        <v>2</v>
-      </c>
       <c r="AH22">
-        <v>21.997949781615802</v>
+        <v>83.103042819249694</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>12.968609742747599</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
-      <c r="A24" s="1" t="s">
+    <row r="23" spans="1:35">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>10</v>
+      </c>
+      <c r="AC23">
+        <v>5</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>5</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <f>SUM(B2:B22)</f>
         <v>24</v>
       </c>
-      <c r="C24">
-        <f t="shared" ref="C24:AG24" si="0">SUM(C2:C22)</f>
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="C25">
+        <f t="shared" ref="C25:AG25" si="0">SUM(C2:C22)</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O24">
+      <c r="O25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24">
+      <c r="P25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24">
+      <c r="Q25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R24">
+      <c r="R25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U24">
+      <c r="U25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Z24">
+      <c r="Z25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA24">
+      <c r="AA25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB24">
+      <c r="AB25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AC24">
+      <c r="AC25">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AD24">
+      <c r="AD25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AE24">
+      <c r="AE25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AF24">
+      <c r="AF25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG24">
+      <c r="AG25">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
+    <row r="26" spans="1:35">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <f>IF(B25=0, 0,B23/B25)</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:AG26" si="1">IF(C25=0, 0,C23/C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="1"/>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="1"/>
+        <v>0.34482758620689657</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B26:AG26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Competition_Results.xlsx
+++ b/Competition_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{73B51B53-8B98-423D-AB5D-1715D1F8BBBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{46363C7C-D4C9-4290-91E1-B2A6089A96F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="26820" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1388888888888889</c:v>
@@ -1005,7 +1005,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.38461538461538464</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.4</c:v>
@@ -1062,7 +1062,7 @@
                   <c:v>0.17857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.5</c:v>
@@ -1301,43 +1301,43 @@
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>Mike HORNBY</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Doug HOUGH</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mike HORNBY</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>Gareth ELLIS</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Demi ASTON</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jason CAWDRON</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>Samuel ANDREWS</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Hellen FOSTER</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Colin HUTCHINGS</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>Adam LUNNON</c:v>
+                  <c:v>Marietta KEANE</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Gareth ELLIS</c:v>
+                  <c:v>Charlotte CURRIE</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Fiona ROCHE</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Jason CAWDRON</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Adam LUNNON</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Chris NUTT</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Marietta KEANE</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Samuel ANDREWS</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>Charlotte CURRIE</c:v>
+                  <c:v>Colin HUTCHINGS</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Tharaka KOTHALAWALA</c:v>
@@ -1349,19 +1349,19 @@
                   <c:v>Ian SIMPSON</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Amy MADDISON</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Daniel SCOTT</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Kayleigh OCKELFORD</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Justin ATKINSON</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Jimmy TARR</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Amy MADDISON</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Daniel SCOTT</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Kayleigh OCKELFORD</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Justin ATKINSON</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1380,67 +1380,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.83333333333333304</c:v>
+                  <c:v>1.26984126984126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26984126984126</c:v>
+                  <c:v>2.37179487179487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.59003831417624</c:v>
+                  <c:v>2.43194192377495</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0619674185463599</c:v>
+                  <c:v>2.7438844680223902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2536340852130299</c:v>
+                  <c:v>2.9039408866995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3889515455304902</c:v>
+                  <c:v>3.1938050253839698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.43194192377495</c:v>
+                  <c:v>3.50418669352426</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.43194192377495</c:v>
+                  <c:v>3.53486590038314</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5960670354045998</c:v>
+                  <c:v>3.5362379755755402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7227306772678799</c:v>
+                  <c:v>3.5576939142728601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.73495592429349</c:v>
+                  <c:v>3.9704034622364901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9039408866995</c:v>
+                  <c:v>4.2184571729943698</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.53486590038314</c:v>
+                  <c:v>5.3804045369834803</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.93339598997493</c:v>
+                  <c:v>5.9846780412569798</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1611737677527101</c:v>
+                  <c:v>6.1013447079236496</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.9444444444444402</c:v>
+                  <c:v>7.7136752136752103</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.8119400512776096</c:v>
+                  <c:v>9.5515873015873005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.4404761904761898</c:v>
+                  <c:v>10.4739500719083</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5337791317373899</c:v>
+                  <c:v>10.8365858279651</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.451970443349699</c:v>
+                  <c:v>13.353225127363</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.968609742747599</c:v>
+                  <c:v>18.367495606833099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,43 +1561,43 @@
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>Mike HORNBY</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Doug HOUGH</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mike HORNBY</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>Gareth ELLIS</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Demi ASTON</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jason CAWDRON</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>Samuel ANDREWS</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Hellen FOSTER</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Colin HUTCHINGS</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>Adam LUNNON</c:v>
+                  <c:v>Marietta KEANE</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Gareth ELLIS</c:v>
+                  <c:v>Charlotte CURRIE</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Fiona ROCHE</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Jason CAWDRON</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Adam LUNNON</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Chris NUTT</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Marietta KEANE</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Samuel ANDREWS</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>Charlotte CURRIE</c:v>
+                  <c:v>Colin HUTCHINGS</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Tharaka KOTHALAWALA</c:v>
@@ -1609,19 +1609,19 @@
                   <c:v>Ian SIMPSON</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Amy MADDISON</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Daniel SCOTT</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Kayleigh OCKELFORD</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Justin ATKINSON</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Jimmy TARR</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Amy MADDISON</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Daniel SCOTT</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Kayleigh OCKELFORD</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Justin ATKINSON</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1640,67 +1640,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>25.603846153846099</c:v>
+                  <c:v>16.832539682539601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.882539682539601</c:v>
+                  <c:v>28.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.533775419982302</c:v>
+                  <c:v>27.672654226193199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.9362518475676</c:v>
+                  <c:v>22.151724137931001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.979029625345401</c:v>
+                  <c:v>29.726744663382501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.579634020949801</c:v>
+                  <c:v>23.6683458646616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.183337986877</c:v>
+                  <c:v>24.540328623282299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.364961918500903</c:v>
+                  <c:v>28.377683465959301</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.948768794222499</c:v>
+                  <c:v>27.006674777128499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.087791472492</c:v>
+                  <c:v>25.665845864661598</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.154751700205399</c:v>
+                  <c:v>36.029491833030796</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.439244663382503</c:v>
+                  <c:v>28.829885489586001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.069991158267001</c:v>
+                  <c:v>34.088822055137797</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.395616926932703</c:v>
+                  <c:v>38.1654887218045</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.282283593599303</c:v>
+                  <c:v>63.763266499582201</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>59.3863247863247</c:v>
+                  <c:v>55.471581196581198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>137.45689455734799</c:v>
+                  <c:v>64.591269841269806</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65.002380952380904</c:v>
+                  <c:v>67.494076254961001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68.423670272055006</c:v>
+                  <c:v>70.639066776135707</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>71.185861647930594</c:v>
+                  <c:v>82.556247947454807</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>83.103042819249694</c:v>
+                  <c:v>149.328262078715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2654,7 +2654,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9315275" cy="6090757"/>
+    <xdr:ext cx="9306537" cy="6082018"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3116,7 +3116,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
@@ -3261,225 +3261,219 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
+        <v>51</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="AC2">
+        <v>4</v>
+      </c>
       <c r="AH2">
-        <v>25.603846153846099</v>
+        <v>16.832539682539601</v>
       </c>
       <c r="AI2">
-        <v>0.83333333333333304</v>
+        <v>1.26984126984126</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
         <v>4</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
-      <c r="V3">
-        <v>4</v>
-      </c>
-      <c r="AC3">
-        <v>4</v>
-      </c>
       <c r="AH3">
-        <v>16.882539682539601</v>
+        <v>28.4</v>
       </c>
       <c r="AI3">
-        <v>1.26984126984126</v>
+        <v>2.37179487179487</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4">
+        <v>44</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="M4">
+      <c r="V4">
         <v>4</v>
       </c>
-      <c r="W4">
-        <v>2</v>
+      <c r="X4">
+        <v>4</v>
       </c>
       <c r="AG4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH4">
-        <v>22.533775419982302</v>
+        <v>27.672654226193199</v>
       </c>
       <c r="AI4">
-        <v>1.59003831417624</v>
+        <v>2.43194192377495</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>2</v>
-      </c>
       <c r="AH5">
-        <v>22.9362518475676</v>
+        <v>22.151724137931001</v>
       </c>
       <c r="AI5">
-        <v>2.0619674185463599</v>
+        <v>2.7438844680223902</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="V6">
         <v>3</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="AC6">
         <v>4</v>
       </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
+      <c r="AE6">
+        <v>3</v>
+      </c>
+      <c r="AG6">
         <v>2</v>
       </c>
       <c r="AH6">
-        <v>21.979029625345401</v>
+        <v>29.726744663382501</v>
       </c>
       <c r="AI6">
-        <v>2.2536340852130299</v>
+        <v>2.9039408866995</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH7">
-        <v>28.579634020949801</v>
+        <v>23.6683458646616</v>
       </c>
       <c r="AI7">
-        <v>2.3889515455304902</v>
+        <v>3.1938050253839698</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
       </c>
       <c r="AG8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH8">
-        <v>33.183337986877</v>
+        <v>24.540328623282299</v>
       </c>
       <c r="AI8">
-        <v>2.43194192377495</v>
+        <v>3.50418669352426</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="V9">
-        <v>4</v>
-      </c>
-      <c r="X9">
+      <c r="L9">
         <v>4</v>
       </c>
       <c r="AG9">
         <v>4</v>
       </c>
       <c r="AH9">
-        <v>33.364961918500903</v>
+        <v>28.377683465959301</v>
       </c>
       <c r="AI9">
-        <v>2.43194192377495</v>
+        <v>3.53486590038314</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -3520,135 +3514,141 @@
         <v>2</v>
       </c>
       <c r="AH10">
-        <v>27.948768794222499</v>
+        <v>27.006674777128499</v>
       </c>
       <c r="AI10">
-        <v>2.5960670354045998</v>
+        <v>3.5362379755755402</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>2</v>
       </c>
-      <c r="AG11">
-        <v>1</v>
-      </c>
       <c r="AH11">
-        <v>26.087791472492</v>
+        <v>25.665845864661598</v>
       </c>
       <c r="AI11">
-        <v>2.7227306772678799</v>
+        <v>3.5576939142728601</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="AC12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH12">
-        <v>23.154751700205399</v>
+        <v>36.029491833030796</v>
       </c>
       <c r="AI12">
-        <v>2.73495592429349</v>
+        <v>3.9704034622364901</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>3</v>
-      </c>
-      <c r="W13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
       </c>
       <c r="AC13">
-        <v>4</v>
-      </c>
-      <c r="AE13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>33.439244663382503</v>
+        <v>28.829885489586001</v>
       </c>
       <c r="AI13">
-        <v>2.9039408866995</v>
+        <v>4.2184571729943698</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
       </c>
       <c r="L14">
         <v>4</v>
       </c>
-      <c r="AG14">
-        <v>4</v>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>34.069991158267001</v>
+        <v>34.088822055137797</v>
       </c>
       <c r="AI14">
-        <v>3.53486590038314</v>
+        <v>5.3804045369834803</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="AH15">
-        <v>34.395616926932703</v>
+        <v>38.1654887218045</v>
       </c>
       <c r="AI15">
-        <v>3.93339598997493</v>
+        <v>5.9846780412569798</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -3736,13 +3736,13 @@
         <v>1</v>
       </c>
       <c r="AH16">
-        <v>63.282283593599303</v>
+        <v>63.763266499582201</v>
       </c>
       <c r="AI16">
-        <v>5.1611737677527101</v>
+        <v>6.1013447079236496</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15.75" customHeight="1">
+    <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -3771,242 +3771,242 @@
         <v>2</v>
       </c>
       <c r="AH17">
-        <v>59.3863247863247</v>
+        <v>55.471581196581198</v>
       </c>
       <c r="AI17">
-        <v>6.9444444444444402</v>
+        <v>7.7136752136752103</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
       </c>
       <c r="AC18">
-        <v>1</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18">
         <v>2</v>
       </c>
       <c r="AH18">
-        <v>137.45689455734799</v>
+        <v>64.591269841269806</v>
       </c>
       <c r="AI18">
-        <v>7.8119400512776096</v>
+        <v>9.5515873015873005</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
       </c>
       <c r="AH19">
-        <v>65.002380952380904</v>
+        <v>67.494076254961001</v>
       </c>
       <c r="AI19">
-        <v>8.4404761904761898</v>
+        <v>10.4739500719083</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20">
         <v>1</v>
       </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
       <c r="W20">
         <v>1</v>
       </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
       <c r="AC20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG20">
         <v>1</v>
       </c>
       <c r="AH20">
-        <v>68.423670272055006</v>
+        <v>70.639066776135707</v>
       </c>
       <c r="AI20">
-        <v>9.5337791317373899</v>
+        <v>10.8365858279651</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
       <c r="M21">
         <v>2</v>
       </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
       <c r="W21">
         <v>1</v>
       </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
       <c r="AC21">
-        <v>2</v>
-      </c>
-      <c r="AE21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH21">
-        <v>71.185861647930594</v>
+        <v>82.556247947454807</v>
       </c>
       <c r="AI21">
-        <v>10.451970443349699</v>
+        <v>13.353225127363</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
       </c>
       <c r="W22">
         <v>1</v>
       </c>
-      <c r="AB22">
-        <v>2</v>
+      <c r="X22">
+        <v>1</v>
       </c>
       <c r="AC22">
         <v>1</v>
       </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
       <c r="AG22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22">
-        <v>83.103042819249694</v>
+        <v>149.328262078715</v>
       </c>
       <c r="AI22">
-        <v>12.968609742747599</v>
+        <v>18.367495606833099</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -4056,7 +4056,7 @@
         <v>5</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB23">
         <v>10</v>
@@ -4098,7 +4098,7 @@
         <v>5</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE23">
         <v>5</v>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="AD26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE26">
         <f t="shared" si="1"/>

--- a/Competition_Results.xlsx
+++ b/Competition_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{46363C7C-D4C9-4290-91E1-B2A6089A96F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB90224A-5463-4BF6-9F71-30CB9DC024D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="26820" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,37 +981,37 @@
                   <c:v>0.20833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1388888888888889</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>1.1538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1026,7 +1026,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>3.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -1044,10 +1044,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26315789473684209</c:v>
+                  <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -1059,19 +1059,19 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.17857142857142858</c:v>
+                  <c:v>0.5357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.34482758620689657</c:v>
+                  <c:v>1.0344827586206897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,34 +1307,34 @@
                   <c:v>Doug HOUGH</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Gareth ELLIS</c:v>
+                  <c:v>Samuel ANDREWS</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Demi ASTON</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Samuel ANDREWS</c:v>
+                  <c:v>Hellen FOSTER</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Hellen FOSTER</c:v>
+                  <c:v>Jason CAWDRON</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Gareth ELLIS</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Marietta KEANE</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Charlotte CURRIE</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Fiona ROCHE</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Jason CAWDRON</c:v>
+                  <c:v>Adam LUNNON</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Adam LUNNON</c:v>
+                  <c:v>Chris NUTT</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Chris NUTT</c:v>
+                  <c:v>Charlotte CURRIE</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Colin HUTCHINGS</c:v>
@@ -1343,22 +1343,22 @@
                   <c:v>Tharaka KOTHALAWALA</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Justin ATKINSON</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Jake MASON</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>Kayleigh OCKELFORD</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Amy MADDISON</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Ian SIMPSON</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>Amy MADDISON</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>Daniel SCOTT</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Kayleigh OCKELFORD</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Justin ATKINSON</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Jimmy TARR</c:v>
@@ -1380,67 +1380,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.26984126984126</c:v>
+                  <c:v>4.8095238095238102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.37179487179487</c:v>
+                  <c:v>6.44871794871794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.43194192377495</c:v>
+                  <c:v>8.9618226600985196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7438844680223902</c:v>
+                  <c:v>9.23165340406719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9039408866995</c:v>
+                  <c:v>9.7480817428185809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1938050253839698</c:v>
+                  <c:v>10.1730817428185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.50418669352426</c:v>
+                  <c:v>10.3727488482479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.53486590038314</c:v>
+                  <c:v>10.845893413906101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5362379755755402</c:v>
+                  <c:v>11.4612780292907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5576939142728601</c:v>
+                  <c:v>11.911210386709399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9704034622364901</c:v>
+                  <c:v>12.3220381856498</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2184571729943698</c:v>
+                  <c:v>13.6815207780725</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3804045369834803</c:v>
+                  <c:v>16.224546944283698</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9846780412569798</c:v>
+                  <c:v>18.037367457104299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1013447079236496</c:v>
+                  <c:v>19.7263420487558</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.7136752136752103</c:v>
+                  <c:v>21.720700790437601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5515873015873005</c:v>
+                  <c:v>23.009757483895399</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.4739500719083</c:v>
+                  <c:v>24.488095238095202</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.8365858279651</c:v>
+                  <c:v>25.179487179487101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.353225127363</c:v>
+                  <c:v>26.6077476516224</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.367495606833099</c:v>
+                  <c:v>30.038384256396899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1567,34 +1567,34 @@
                   <c:v>Doug HOUGH</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Gareth ELLIS</c:v>
+                  <c:v>Samuel ANDREWS</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Demi ASTON</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Samuel ANDREWS</c:v>
+                  <c:v>Hellen FOSTER</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Hellen FOSTER</c:v>
+                  <c:v>Jason CAWDRON</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Gareth ELLIS</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Marietta KEANE</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Charlotte CURRIE</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Fiona ROCHE</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Jason CAWDRON</c:v>
+                  <c:v>Adam LUNNON</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Adam LUNNON</c:v>
+                  <c:v>Chris NUTT</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Chris NUTT</c:v>
+                  <c:v>Charlotte CURRIE</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Colin HUTCHINGS</c:v>
@@ -1603,22 +1603,22 @@
                   <c:v>Tharaka KOTHALAWALA</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>Justin ATKINSON</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Jake MASON</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>Kayleigh OCKELFORD</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Amy MADDISON</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Ian SIMPSON</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>Amy MADDISON</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>Daniel SCOTT</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Kayleigh OCKELFORD</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Justin ATKINSON</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Jimmy TARR</c:v>
@@ -1640,67 +1640,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>16.832539682539601</c:v>
+                  <c:v>20.431746031745998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.4</c:v>
+                  <c:v>22.312820512820501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.672654226193199</c:v>
+                  <c:v>36.323604269293902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.151724137931001</c:v>
+                  <c:v>27.412680518715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.726744663382501</c:v>
+                  <c:v>31.362352997879299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.6683458646616</c:v>
+                  <c:v>32.6706863312126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.540328623282299</c:v>
+                  <c:v>34.217072300556801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.377683465959301</c:v>
+                  <c:v>33.212971919187801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.006674777128499</c:v>
+                  <c:v>35.0762197824357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.665845864661598</c:v>
+                  <c:v>36.275191958676501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.029491833030796</c:v>
+                  <c:v>37.591834748232202</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.829885489586001</c:v>
+                  <c:v>39.699528440907699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.088822055137797</c:v>
+                  <c:v>44.607621618147903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.1654887218045</c:v>
+                  <c:v>50.068305378831603</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.763266499582201</c:v>
+                  <c:v>62.916984548019002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.471581196581198</c:v>
+                  <c:v>66.693305378831695</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.591269841269806</c:v>
+                  <c:v>85.455285040629803</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67.494076254961001</c:v>
+                  <c:v>78.493650793650801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70.639066776135707</c:v>
+                  <c:v>67.722649572649502</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>82.556247947454807</c:v>
+                  <c:v>84.851520822391905</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>149.328262078715</c:v>
+                  <c:v>115.153967035183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3110,7 +3110,7 @@
   <dimension ref="A1:AI26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3276,10 +3276,10 @@
         <v>4</v>
       </c>
       <c r="AH2">
-        <v>16.832539682539601</v>
+        <v>20.431746031745998</v>
       </c>
       <c r="AI2">
-        <v>1.26984126984126</v>
+        <v>4.8095238095238102</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -3299,33 +3299,39 @@
         <v>4</v>
       </c>
       <c r="AH3">
-        <v>28.4</v>
+        <v>22.312820512820501</v>
       </c>
       <c r="AI3">
-        <v>2.37179487179487</v>
+        <v>6.44871794871794</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4">
+        <v>43</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
         <v>4</v>
       </c>
-      <c r="V4">
-        <v>4</v>
-      </c>
-      <c r="X4">
-        <v>4</v>
+      <c r="AE4">
+        <v>3</v>
       </c>
       <c r="AG4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH4">
-        <v>27.672654226193199</v>
+        <v>36.323604269293902</v>
       </c>
       <c r="AI4">
-        <v>2.43194192377495</v>
+        <v>8.9618226600985196</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -3348,50 +3354,56 @@
         <v>3</v>
       </c>
       <c r="AH5">
-        <v>22.151724137931001</v>
+        <v>27.412680518715</v>
       </c>
       <c r="AI5">
-        <v>2.7438844680223902</v>
+        <v>9.23165340406719</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>3</v>
-      </c>
-      <c r="W6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>4</v>
-      </c>
-      <c r="AE6">
-        <v>3</v>
-      </c>
-      <c r="AG6">
         <v>2</v>
       </c>
       <c r="AH6">
-        <v>29.726744663382501</v>
+        <v>31.362352997879299</v>
       </c>
       <c r="AI6">
-        <v>2.9039408866995</v>
+        <v>9.7480817428185809</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -3400,10 +3412,10 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -3412,68 +3424,68 @@
         <v>2</v>
       </c>
       <c r="AH7">
-        <v>23.6683458646616</v>
+        <v>32.6706863312126</v>
       </c>
       <c r="AI7">
-        <v>3.1938050253839698</v>
+        <v>10.1730817428185</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
       </c>
       <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH8">
-        <v>24.540328623282299</v>
+        <v>34.217072300556801</v>
       </c>
       <c r="AI8">
-        <v>3.50418669352426</v>
+        <v>10.3727488482479</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
       </c>
       <c r="AG9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH9">
-        <v>28.377683465959301</v>
+        <v>33.212971919187801</v>
       </c>
       <c r="AI9">
-        <v>3.53486590038314</v>
+        <v>10.845893413906101</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -3514,106 +3526,94 @@
         <v>2</v>
       </c>
       <c r="AH10">
-        <v>27.006674777128499</v>
+        <v>35.0762197824357</v>
       </c>
       <c r="AI10">
-        <v>3.5362379755755402</v>
+        <v>11.4612780292907</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="AC11">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <v>4</v>
       </c>
       <c r="AH11">
-        <v>25.665845864661598</v>
+        <v>36.275191958676501</v>
       </c>
       <c r="AI11">
-        <v>3.5576939142728601</v>
+        <v>11.911210386709399</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
       </c>
       <c r="AG12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>36.029491833030796</v>
+        <v>37.591834748232202</v>
       </c>
       <c r="AI12">
-        <v>3.9704034622364901</v>
+        <v>12.3220381856498</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="AC13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH13">
-        <v>28.829885489586001</v>
+        <v>39.699528440907699</v>
       </c>
       <c r="AI13">
-        <v>4.2184571729943698</v>
+        <v>13.6815207780725</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -3645,10 +3645,10 @@
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>34.088822055137797</v>
+        <v>44.607621618147903</v>
       </c>
       <c r="AI14">
-        <v>5.3804045369834803</v>
+        <v>16.224546944283698</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -3683,121 +3683,130 @@
         <v>1</v>
       </c>
       <c r="AH15">
-        <v>38.1654887218045</v>
+        <v>50.068305378831603</v>
       </c>
       <c r="AI15">
-        <v>5.9846780412569798</v>
+        <v>18.037367457104299</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="H16">
         <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
       <c r="W16">
         <v>1</v>
       </c>
-      <c r="X16">
-        <v>1</v>
+      <c r="AB16">
+        <v>2</v>
       </c>
       <c r="AC16">
         <v>1</v>
       </c>
-      <c r="AE16">
-        <v>1</v>
+      <c r="AG16">
+        <v>3</v>
       </c>
       <c r="AH16">
-        <v>63.763266499582201</v>
+        <v>62.916984548019002</v>
       </c>
       <c r="AI16">
-        <v>6.1013447079236496</v>
+        <v>19.7263420487558</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>2</v>
-      </c>
-      <c r="Y17">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AH17">
-        <v>55.471581196581198</v>
+        <v>66.693305378831695</v>
       </c>
       <c r="AI17">
-        <v>7.7136752136752103</v>
+        <v>21.720700790437601</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="D18">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>2</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>2</v>
-      </c>
-      <c r="Y18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>2</v>
@@ -3805,152 +3814,143 @@
       <c r="AE18">
         <v>2</v>
       </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
       <c r="AH18">
-        <v>64.591269841269806</v>
+        <v>85.455285040629803</v>
       </c>
       <c r="AI18">
-        <v>9.5515873015873005</v>
+        <v>23.009757483895399</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AG19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH19">
-        <v>67.494076254961001</v>
+        <v>78.493650793650801</v>
       </c>
       <c r="AI19">
-        <v>10.4739500719083</v>
+        <v>24.488095238095202</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
         <v>2</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20">
         <v>2</v>
       </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
       <c r="V20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>2</v>
-      </c>
-      <c r="AE20">
-        <v>2</v>
-      </c>
-      <c r="AG20">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
       </c>
       <c r="AH20">
-        <v>70.639066776135707</v>
+        <v>67.722649572649502</v>
       </c>
       <c r="AI20">
-        <v>10.8365858279651</v>
+        <v>25.179487179487101</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
       </c>
       <c r="W21">
         <v>1</v>
       </c>
-      <c r="AB21">
-        <v>2</v>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
       </c>
       <c r="AC21">
         <v>1</v>
       </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
       <c r="AG21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>82.556247947454807</v>
+        <v>84.851520822391905</v>
       </c>
       <c r="AI21">
-        <v>13.353225127363</v>
+        <v>26.6077476516224</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="AH22">
-        <v>149.328262078715</v>
+        <v>115.153967035183</v>
       </c>
       <c r="AI22">
-        <v>18.367495606833099</v>
+        <v>30.038384256396899</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -4017,37 +4017,37 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
         <v>10</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23">
         <v>10</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
       </c>
       <c r="N23">
         <v>10</v>
@@ -4056,19 +4056,19 @@
         <v>5</v>
       </c>
       <c r="P23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -4080,34 +4080,34 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Y23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB23">
         <v>10</v>
       </c>
       <c r="AC23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AD23">
         <v>10</v>
       </c>
       <c r="AE23">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AF23">
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -4253,19 +4253,19 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:AG26" si="1">IF(C25=0, 0,C23/C25)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>0.1388888888888889</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
@@ -4273,11 +4273,11 @@
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>5</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
@@ -4285,15 +4285,15 @@
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>0.38461538461538464</v>
+        <v>1.1538461538461537</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N26">
         <f t="shared" si="1"/>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
@@ -4337,11 +4337,11 @@
       </c>
       <c r="X26">
         <f t="shared" si="1"/>
-        <v>0.26315789473684209</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="Y26">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>5</v>
       </c>
       <c r="Z26">
         <f t="shared" si="1"/>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="AC26">
         <f t="shared" si="1"/>
-        <v>0.17857142857142858</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="AD26">
         <f t="shared" si="1"/>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="AE26">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AF26">
         <f t="shared" si="1"/>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="AG26">
         <f t="shared" si="1"/>
-        <v>0.34482758620689657</v>
+        <v>1.0344827586206897</v>
       </c>
     </row>
   </sheetData>

--- a/Competition_Results.xlsx
+++ b/Competition_Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18_pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB90224A-5463-4BF6-9F71-30CB9DC024D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{94D202BD-2C51-4A9F-9CA1-E92BE795037B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="26820" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,7 +1044,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.78947368421052633</c:v>
+                  <c:v>1.5789473684210527</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>5</c:v>
@@ -1059,7 +1059,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5357142857142857</c:v>
+                  <c:v>1.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>10</c:v>
@@ -1071,7 +1071,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0344827586206897</c:v>
+                  <c:v>1.3793103448275863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,40 +1301,40 @@
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>Doug HOUGH</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Mike HORNBY</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Doug HOUGH</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>Demi ASTON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hellen FOSTER</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Samuel ANDREWS</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Demi ASTON</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Hellen FOSTER</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Jason CAWDRON</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Marietta KEANE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Fiona ROCHE</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Gareth ELLIS</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marietta KEANE</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Fiona ROCHE</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>Adam LUNNON</c:v>
+                  <c:v>Charlotte CURRIE</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Chris NUTT</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Charlotte CURRIE</c:v>
+                  <c:v>Adam LUNNON</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Colin HUTCHINGS</c:v>
@@ -1352,10 +1352,10 @@
                   <c:v>Kayleigh OCKELFORD</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Ian SIMPSON</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Amy MADDISON</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Ian SIMPSON</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Daniel SCOTT</c:v>
@@ -1380,67 +1380,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.8095238095238102</c:v>
+                  <c:v>6.44871794871794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.44871794871794</c:v>
+                  <c:v>6.9523809523809499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9618226600985196</c:v>
+                  <c:v>10.2661361626878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.23165340406719</c:v>
+                  <c:v>11.6089839984576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7480817428185809</c:v>
+                  <c:v>11.7943349753694</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.1730817428185</c:v>
+                  <c:v>12.0339839984576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.3727488482479</c:v>
+                  <c:v>13.396450841959</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.845893413906101</c:v>
+                  <c:v>14.011835457343601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.4612780292907</c:v>
+                  <c:v>14.9099539299176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.911210386709399</c:v>
+                  <c:v>15.0608311229</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.3220381856498</c:v>
+                  <c:v>15.3172417117063</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.6815207780725</c:v>
+                  <c:v>16.4484154683791</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.224546944283698</c:v>
+                  <c:v>17.549734914208599</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.037367457104299</c:v>
+                  <c:v>19.3625554270291</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.7263420487558</c:v>
+                  <c:v>21.2965390930908</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.720700790437601</c:v>
+                  <c:v>23.045888760362399</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.009757483895399</c:v>
+                  <c:v>24.426013641530801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.488095238095202</c:v>
+                  <c:v>25.179487179487101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.179487179487101</c:v>
+                  <c:v>25.5595238095238</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.6077476516224</c:v>
+                  <c:v>28.277763207754099</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.038384256396899</c:v>
+                  <c:v>32.053227398735501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,40 +1561,40 @@
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>Doug HOUGH</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Mike HORNBY</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Doug HOUGH</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>Demi ASTON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hellen FOSTER</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Samuel ANDREWS</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Demi ASTON</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Hellen FOSTER</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Jason CAWDRON</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Marietta KEANE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Fiona ROCHE</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Gareth ELLIS</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Marietta KEANE</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Fiona ROCHE</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>Adam LUNNON</c:v>
+                  <c:v>Charlotte CURRIE</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Chris NUTT</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Charlotte CURRIE</c:v>
+                  <c:v>Adam LUNNON</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Colin HUTCHINGS</c:v>
@@ -1612,10 +1612,10 @@
                   <c:v>Kayleigh OCKELFORD</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>Ian SIMPSON</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Amy MADDISON</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Ian SIMPSON</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Daniel SCOTT</c:v>
@@ -1640,67 +1640,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>20.431746031745998</c:v>
+                  <c:v>19.605128205128199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.312820512820501</c:v>
+                  <c:v>21.288888888888799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.323604269293902</c:v>
+                  <c:v>27.7741526672561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.412680518715</c:v>
+                  <c:v>32.427159244264502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.362352997879299</c:v>
+                  <c:v>37.525574712643603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.6706863312126</c:v>
+                  <c:v>33.6604925775978</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.217072300556801</c:v>
+                  <c:v>34.6456826748569</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.212971919187801</c:v>
+                  <c:v>36.4858536150278</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.0762197824357</c:v>
+                  <c:v>37.959359051918</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.275191958676501</c:v>
+                  <c:v>40.389183613321499</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.591834748232202</c:v>
+                  <c:v>39.517212682457597</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.699528440907699</c:v>
+                  <c:v>37.309786402345303</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44.607621618147903</c:v>
+                  <c:v>45.1812190733243</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.068305378831603</c:v>
+                  <c:v>49.935492577597799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62.916984548019002</c:v>
+                  <c:v>63.596588564691999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.693305378831695</c:v>
+                  <c:v>67.543825910931105</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85.455285040629803</c:v>
+                  <c:v>86.004347185381604</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78.493650793650801</c:v>
+                  <c:v>65.952136752136695</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67.722649572649502</c:v>
+                  <c:v>77.105555555555497</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>84.851520822391905</c:v>
+                  <c:v>85.041121814261501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>115.153967035183</c:v>
+                  <c:v>115.051238230412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3261,138 +3261,138 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
         <v>4</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
-      <c r="V2">
-        <v>4</v>
-      </c>
-      <c r="AC2">
-        <v>4</v>
-      </c>
       <c r="AH2">
-        <v>20.431746031745998</v>
+        <v>19.605128205128199</v>
       </c>
       <c r="AI2">
-        <v>4.8095238095238102</v>
+        <v>6.44871794871794</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
+        <v>51</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="AC3">
+        <v>4</v>
+      </c>
       <c r="AH3">
-        <v>22.312820512820501</v>
+        <v>21.288888888888799</v>
       </c>
       <c r="AI3">
-        <v>6.44871794871794</v>
+        <v>6.9523809523809499</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="AG4">
         <v>3</v>
       </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="AC4">
-        <v>4</v>
-      </c>
-      <c r="AE4">
-        <v>3</v>
-      </c>
-      <c r="AG4">
-        <v>2</v>
-      </c>
       <c r="AH4">
-        <v>36.323604269293902</v>
+        <v>27.7741526672561</v>
       </c>
       <c r="AI4">
-        <v>8.9618226600985196</v>
+        <v>10.2661361626878</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
-      <c r="W5">
-        <v>2</v>
-      </c>
-      <c r="AG5">
-        <v>3</v>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
       </c>
       <c r="AH5">
-        <v>27.412680518715</v>
+        <v>32.427159244264502</v>
       </c>
       <c r="AI5">
-        <v>9.23165340406719</v>
+        <v>11.6089839984576</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="V6">
         <v>3</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="AC6">
         <v>4</v>
       </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
+      <c r="AE6">
+        <v>3</v>
+      </c>
+      <c r="AG6">
         <v>2</v>
       </c>
       <c r="AH6">
-        <v>31.362352997879299</v>
+        <v>37.525574712643603</v>
       </c>
       <c r="AI6">
-        <v>9.7480817428185809</v>
+        <v>11.7943349753694</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -3424,53 +3424,74 @@
         <v>2</v>
       </c>
       <c r="AH7">
-        <v>32.6706863312126</v>
+        <v>33.6604925775978</v>
       </c>
       <c r="AI7">
-        <v>10.1730817428185</v>
+        <v>12.0339839984576</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="V8">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
       </c>
       <c r="AG8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH8">
-        <v>34.217072300556801</v>
+        <v>34.6456826748569</v>
       </c>
       <c r="AI8">
-        <v>10.3727488482479</v>
+        <v>13.396450841959</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>2</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -3482,77 +3503,56 @@
         <v>2</v>
       </c>
       <c r="AH9">
-        <v>33.212971919187801</v>
+        <v>36.4858536150278</v>
       </c>
       <c r="AI9">
-        <v>10.845893413906101</v>
+        <v>14.011835457343601</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
       </c>
       <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="AC10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH10">
-        <v>35.0762197824357</v>
+        <v>37.959359051918</v>
       </c>
       <c r="AI10">
-        <v>11.4612780292907</v>
+        <v>14.9099539299176</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11">
+        <v>46</v>
+      </c>
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="K11">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="X11">
+      <c r="L11">
         <v>4</v>
       </c>
       <c r="AG11">
         <v>4</v>
       </c>
       <c r="AH11">
-        <v>36.275191958676501</v>
+        <v>40.389183613321499</v>
       </c>
       <c r="AI11">
-        <v>11.911210386709399</v>
+        <v>15.0608311229</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -3587,33 +3587,33 @@
         <v>1</v>
       </c>
       <c r="AH12">
-        <v>37.591834748232202</v>
+        <v>39.517212682457597</v>
       </c>
       <c r="AI12">
-        <v>12.3220381856498</v>
+        <v>15.3172417117063</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13">
+        <v>41</v>
+      </c>
+      <c r="J13">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="L13">
+      <c r="X13">
         <v>4</v>
       </c>
       <c r="AG13">
         <v>4</v>
       </c>
       <c r="AH13">
-        <v>39.699528440907699</v>
+        <v>37.309786402345303</v>
       </c>
       <c r="AI13">
-        <v>13.6815207780725</v>
+        <v>16.4484154683791</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -3645,10 +3645,10 @@
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>44.607621618147903</v>
+        <v>45.1812190733243</v>
       </c>
       <c r="AI14">
-        <v>16.224546944283698</v>
+        <v>17.549734914208599</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="AH15">
-        <v>50.068305378831603</v>
+        <v>49.935492577597799</v>
       </c>
       <c r="AI15">
-        <v>18.037367457104299</v>
+        <v>19.3625554270291</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -3721,10 +3721,10 @@
         <v>3</v>
       </c>
       <c r="AH16">
-        <v>62.916984548019002</v>
+        <v>63.596588564691999</v>
       </c>
       <c r="AI16">
-        <v>19.7263420487558</v>
+        <v>21.2965390930908</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -3774,10 +3774,10 @@
         <v>1</v>
       </c>
       <c r="AH17">
-        <v>66.693305378831695</v>
+        <v>67.543825910931105</v>
       </c>
       <c r="AI17">
-        <v>21.720700790437601</v>
+        <v>23.045888760362399</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -3818,23 +3818,29 @@
         <v>1</v>
       </c>
       <c r="AH18">
-        <v>85.455285040629803</v>
+        <v>86.004347185381604</v>
       </c>
       <c r="AI18">
-        <v>23.009757483895399</v>
+        <v>24.426013641530801</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="R19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="M19">
         <v>2</v>
       </c>
       <c r="V19">
@@ -3846,36 +3852,24 @@
       <c r="Y19">
         <v>2</v>
       </c>
-      <c r="AC19">
-        <v>2</v>
-      </c>
-      <c r="AE19">
-        <v>2</v>
-      </c>
       <c r="AH19">
-        <v>78.493650793650801</v>
+        <v>65.952136752136695</v>
       </c>
       <c r="AI19">
-        <v>24.488095238095202</v>
+        <v>25.179487179487101</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="M20">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="R20">
         <v>2</v>
       </c>
       <c r="V20">
@@ -3887,11 +3881,17 @@
       <c r="Y20">
         <v>2</v>
       </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AE20">
+        <v>2</v>
+      </c>
       <c r="AH20">
-        <v>67.722649572649502</v>
+        <v>77.105555555555497</v>
       </c>
       <c r="AI20">
-        <v>25.179487179487101</v>
+        <v>25.5595238095238</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -3947,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="AH21">
-        <v>84.851520822391905</v>
+        <v>85.041121814261501</v>
       </c>
       <c r="AI21">
-        <v>26.6077476516224</v>
+        <v>28.277763207754099</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="AH22">
-        <v>115.153967035183</v>
+        <v>115.051238230412</v>
       </c>
       <c r="AI22">
-        <v>30.038384256396899</v>
+        <v>32.053227398735501</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -4050,7 +4050,7 @@
         <v>10</v>
       </c>
       <c r="N23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O23">
         <v>5</v>
@@ -4065,7 +4065,7 @@
         <v>20</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T23">
         <v>10</v>
@@ -4080,13 +4080,13 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y23">
         <v>30</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA23">
         <v>15</v>
@@ -4095,7 +4095,7 @@
         <v>10</v>
       </c>
       <c r="AC23">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AD23">
         <v>10</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="X26">
         <f t="shared" si="1"/>
-        <v>0.78947368421052633</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="Y26">
         <f t="shared" si="1"/>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="AC26">
         <f t="shared" si="1"/>
-        <v>0.5357142857142857</v>
+        <v>1.0714285714285714</v>
       </c>
       <c r="AD26">
         <f t="shared" si="1"/>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="AG26">
         <f t="shared" si="1"/>
-        <v>1.0344827586206897</v>
+        <v>1.3793103448275863</v>
       </c>
     </row>
   </sheetData>

--- a/Competition_Results.xlsx
+++ b/Competition_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18_pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{94D202BD-2C51-4A9F-9CA1-E92BE795037B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5AD0395-270B-448A-8FA0-885E70512455}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="26820" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,7 +978,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.20833333333333334</c:v>
+                  <c:v>1.0416666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -996,10 +996,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.75</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1038,7 +1038,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -1301,10 +1301,10 @@
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>Mike HORNBY</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Doug HOUGH</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mike HORNBY</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Demi ASTON</c:v>
@@ -1316,25 +1316,25 @@
                   <c:v>Samuel ANDREWS</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Marietta KEANE</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Jason CAWDRON</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Marietta KEANE</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Fiona ROCHE</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Gareth ELLIS</c:v>
+                  <c:v>Charlotte CURRIE</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Charlotte CURRIE</c:v>
+                  <c:v>Adam LUNNON</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Chris NUTT</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Adam LUNNON</c:v>
+                  <c:v>Gareth ELLIS</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Colin HUTCHINGS</c:v>
@@ -1349,16 +1349,16 @@
                   <c:v>Jake MASON</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Kayleigh OCKELFORD</c:v>
+                  <c:v>Amy MADDISON</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Ian SIMPSON</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Amy MADDISON</c:v>
+                  <c:v>Daniel SCOTT</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Daniel SCOTT</c:v>
+                  <c:v>Kayleigh OCKELFORD</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Jimmy TARR</c:v>
@@ -1380,67 +1380,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.44871794871794</c:v>
+                  <c:v>9.1746031746031704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9523809523809499</c:v>
+                  <c:v>9.7820512820512793</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10.2661361626878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.6089839984576</c:v>
+                  <c:v>13.275650665124299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.7943349753694</c:v>
+                  <c:v>13.4610016420361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0339839984576</c:v>
+                  <c:v>14.2297841752923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.396450841959</c:v>
+                  <c:v>14.5339839984576</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.011835457343601</c:v>
+                  <c:v>14.845168790676899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.9099539299176</c:v>
+                  <c:v>15.0608311229</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.0608311229</c:v>
+                  <c:v>16.4484154683791</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.3172417117063</c:v>
+                  <c:v>16.983908378372899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.4484154683791</c:v>
+                  <c:v>17.132176152139799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.549734914208599</c:v>
+                  <c:v>18.3830682475419</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.3625554270291</c:v>
+                  <c:v>20.195888760362401</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.2965390930908</c:v>
+                  <c:v>22.9632057597574</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.045888760362399</c:v>
+                  <c:v>26.101444315917998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.426013641530801</c:v>
+                  <c:v>28.3373015873015</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.179487179487101</c:v>
+                  <c:v>29.6239316239316</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.5595238095238</c:v>
+                  <c:v>33.277763207754099</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.277763207754099</c:v>
+                  <c:v>33.314902530419701</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.053227398735501</c:v>
+                  <c:v>37.608782954291101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,10 +1561,10 @@
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>Mike HORNBY</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Doug HOUGH</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mike HORNBY</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Demi ASTON</c:v>
@@ -1576,25 +1576,25 @@
                   <c:v>Samuel ANDREWS</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>Marietta KEANE</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Jason CAWDRON</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Marietta KEANE</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Fiona ROCHE</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Gareth ELLIS</c:v>
+                  <c:v>Charlotte CURRIE</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Charlotte CURRIE</c:v>
+                  <c:v>Adam LUNNON</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Chris NUTT</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Adam LUNNON</c:v>
+                  <c:v>Gareth ELLIS</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Colin HUTCHINGS</c:v>
@@ -1609,16 +1609,16 @@
                   <c:v>Jake MASON</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Kayleigh OCKELFORD</c:v>
+                  <c:v>Amy MADDISON</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Ian SIMPSON</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Amy MADDISON</c:v>
+                  <c:v>Daniel SCOTT</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Daniel SCOTT</c:v>
+                  <c:v>Kayleigh OCKELFORD</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Jimmy TARR</c:v>
@@ -1640,67 +1640,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>19.605128205128199</c:v>
+                  <c:v>22.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.288888888888799</c:v>
+                  <c:v>26.2717948717948</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>27.7741526672561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.427159244264502</c:v>
+                  <c:v>35.360492577597803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.525574712643603</c:v>
+                  <c:v>38.358908045977003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.6604925775978</c:v>
+                  <c:v>35.912349341523502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.6456826748569</c:v>
+                  <c:v>38.460492577597797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.4858536150278</c:v>
+                  <c:v>37.752520281694501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.959359051918</c:v>
+                  <c:v>39.589183613321502</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.389183613321499</c:v>
+                  <c:v>37.309786402345303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.517212682457597</c:v>
+                  <c:v>42.450546015790998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.309786402345303</c:v>
+                  <c:v>39.0704701630291</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.1812190733243</c:v>
+                  <c:v>46.047885739991003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.935492577597799</c:v>
+                  <c:v>51.002159244264497</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.596588564691999</c:v>
+                  <c:v>66.329921898025304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>67.543825910931105</c:v>
+                  <c:v>61.621603688708902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>86.004347185381604</c:v>
+                  <c:v>80.994444444444397</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65.952136752136695</c:v>
+                  <c:v>68.174358974358896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77.105555555555497</c:v>
+                  <c:v>86.966121814261498</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>85.041121814261501</c:v>
+                  <c:v>89.698791629826104</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>115.051238230412</c:v>
+                  <c:v>117.45401600819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3261,48 +3261,48 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
+        <v>51</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="AC2">
+        <v>4</v>
+      </c>
       <c r="AH2">
-        <v>19.605128205128199</v>
+        <v>22.4</v>
       </c>
       <c r="AI2">
-        <v>6.44871794871794</v>
+        <v>9.1746031746031704</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
         <v>4</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
-      <c r="V3">
-        <v>4</v>
-      </c>
-      <c r="AC3">
-        <v>4</v>
-      </c>
       <c r="AH3">
-        <v>21.288888888888799</v>
+        <v>26.2717948717948</v>
       </c>
       <c r="AI3">
-        <v>6.9523809523809499</v>
+        <v>9.7820512820512793</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -3360,10 +3360,10 @@
         <v>2</v>
       </c>
       <c r="AH5">
-        <v>32.427159244264502</v>
+        <v>35.360492577597803</v>
       </c>
       <c r="AI5">
-        <v>11.6089839984576</v>
+        <v>13.275650665124299</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -3389,30 +3389,27 @@
         <v>2</v>
       </c>
       <c r="AH6">
-        <v>37.525574712643603</v>
+        <v>38.358908045977003</v>
       </c>
       <c r="AI6">
-        <v>11.7943349753694</v>
+        <v>13.4610016420361</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -3423,28 +3420,34 @@
       <c r="AC7">
         <v>2</v>
       </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
       <c r="AH7">
-        <v>33.6604925775978</v>
+        <v>35.912349341523502</v>
       </c>
       <c r="AI7">
-        <v>12.0339839984576</v>
+        <v>14.2297841752923</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -3455,14 +3458,11 @@
       <c r="AC8">
         <v>2</v>
       </c>
-      <c r="AG8">
-        <v>2</v>
-      </c>
       <c r="AH8">
-        <v>34.6456826748569</v>
+        <v>38.460492577597797</v>
       </c>
       <c r="AI8">
-        <v>13.396450841959</v>
+        <v>14.5339839984576</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -3503,56 +3503,56 @@
         <v>2</v>
       </c>
       <c r="AH9">
-        <v>36.4858536150278</v>
+        <v>37.752520281694501</v>
       </c>
       <c r="AI9">
-        <v>14.011835457343601</v>
+        <v>14.845168790676899</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="V10">
-        <v>4</v>
-      </c>
-      <c r="X10">
+      <c r="L10">
         <v>4</v>
       </c>
       <c r="AG10">
         <v>4</v>
       </c>
       <c r="AH10">
-        <v>37.959359051918</v>
+        <v>39.589183613321502</v>
       </c>
       <c r="AI10">
-        <v>14.9099539299176</v>
+        <v>15.0608311229</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11">
+        <v>41</v>
+      </c>
+      <c r="J11">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="L11">
+      <c r="X11">
         <v>4</v>
       </c>
       <c r="AG11">
         <v>4</v>
       </c>
       <c r="AH11">
-        <v>40.389183613321499</v>
+        <v>37.309786402345303</v>
       </c>
       <c r="AI11">
-        <v>15.0608311229</v>
+        <v>16.4484154683791</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -3587,20 +3587,20 @@
         <v>1</v>
       </c>
       <c r="AH12">
-        <v>39.517212682457597</v>
+        <v>42.450546015790998</v>
       </c>
       <c r="AI12">
-        <v>15.3172417117063</v>
+        <v>16.983908378372899</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13">
+        <v>44</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="K13">
+      <c r="V13">
         <v>4</v>
       </c>
       <c r="X13">
@@ -3610,10 +3610,10 @@
         <v>4</v>
       </c>
       <c r="AH13">
-        <v>37.309786402345303</v>
+        <v>39.0704701630291</v>
       </c>
       <c r="AI13">
-        <v>16.4484154683791</v>
+        <v>17.132176152139799</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -3645,10 +3645,10 @@
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>45.1812190733243</v>
+        <v>46.047885739991003</v>
       </c>
       <c r="AI14">
-        <v>17.549734914208599</v>
+        <v>18.3830682475419</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="AH15">
-        <v>49.935492577597799</v>
+        <v>51.002159244264497</v>
       </c>
       <c r="AI15">
-        <v>19.3625554270291</v>
+        <v>20.195888760362401</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -3721,10 +3721,10 @@
         <v>3</v>
       </c>
       <c r="AH16">
-        <v>63.596588564691999</v>
+        <v>66.329921898025304</v>
       </c>
       <c r="AI16">
-        <v>21.2965390930908</v>
+        <v>22.9632057597574</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -3774,39 +3774,33 @@
         <v>1</v>
       </c>
       <c r="AH17">
-        <v>67.543825910931105</v>
+        <v>61.621603688708902</v>
       </c>
       <c r="AI17">
-        <v>23.045888760362399</v>
+        <v>26.101444315917998</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="D18">
         <v>2</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
       </c>
       <c r="AC18">
         <v>2</v>
@@ -3814,14 +3808,11 @@
       <c r="AE18">
         <v>2</v>
       </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
       <c r="AH18">
-        <v>86.004347185381604</v>
+        <v>80.994444444444397</v>
       </c>
       <c r="AI18">
-        <v>24.426013641530801</v>
+        <v>28.3373015873015</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -3853,104 +3844,113 @@
         <v>2</v>
       </c>
       <c r="AH19">
-        <v>65.952136752136695</v>
+        <v>68.174358974358896</v>
       </c>
       <c r="AI19">
-        <v>25.179487179487101</v>
+        <v>29.6239316239316</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
       </c>
       <c r="AH20">
-        <v>77.105555555555497</v>
+        <v>86.966121814261498</v>
       </c>
       <c r="AI20">
-        <v>25.5595238095238</v>
+        <v>33.277763207754099</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21">
         <v>1</v>
       </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
       <c r="W21">
         <v>1</v>
       </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
       <c r="AC21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG21">
         <v>1</v>
       </c>
       <c r="AH21">
-        <v>85.041121814261501</v>
+        <v>89.698791629826104</v>
       </c>
       <c r="AI21">
-        <v>28.277763207754099</v>
+        <v>33.314902530419701</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="AH22">
-        <v>115.051238230412</v>
+        <v>117.45401600819</v>
       </c>
       <c r="AI22">
-        <v>32.053227398735501</v>
+        <v>37.608782954291101</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -4014,7 +4014,7 @@
         <v>57</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I23">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B26">
         <f>IF(B25=0, 0,B23/B25)</f>
-        <v>0.20833333333333334</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26:AG26" si="1">IF(C25=0, 0,C23/C25)</f>
@@ -4273,11 +4273,11 @@
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>6.25</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="W26">
         <f t="shared" si="1"/>

--- a/Competition_Results.xlsx
+++ b/Competition_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18_pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E5AD0395-270B-448A-8FA0-885E70512455}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EC8B51F3-1F3B-44EA-8C41-42CBA1F1EFAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="26820" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="26820" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competition_Results" sheetId="1" r:id="rId1"/>
@@ -984,19 +984,19 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>3.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>1.5277777777777777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76923076923076927</c:v>
+                  <c:v>2.3076923076923075</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.25</c:v>
@@ -1005,10 +1005,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1538461538461537</c:v>
+                  <c:v>1.9230769230769231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.25</c:v>
@@ -1026,7 +1026,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -1041,13 +1041,13 @@
                   <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1.5789473684210527</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -1062,16 +1062,16 @@
                   <c:v>1.0714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3793103448275863</c:v>
+                  <c:v>2.0689655172413794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,10 +1301,10 @@
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>Doug HOUGH</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Mike HORNBY</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Doug HOUGH</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Demi ASTON</c:v>
@@ -1319,46 +1319,46 @@
                   <c:v>Marietta KEANE</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Adam LUNNON</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Jason CAWDRON</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Fiona ROCHE</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>Charlotte CURRIE</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>Adam LUNNON</c:v>
+                  <c:v>Chris NUTT</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Chris NUTT</c:v>
+                  <c:v>Gareth ELLIS</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Gareth ELLIS</c:v>
+                  <c:v>Justin ATKINSON</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Colin HUTCHINGS</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Charlotte CURRIE</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Tharaka KOTHALAWALA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Justin ATKINSON</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Jake MASON</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Kayleigh OCKELFORD</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Amy MADDISON</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ian SIMPSON</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Daniel SCOTT</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Kayleigh OCKELFORD</c:v>
+                  <c:v>Ian SIMPSON</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Jimmy TARR</c:v>
@@ -1380,67 +1380,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>9.1746031746031704</c:v>
+                  <c:v>12.858974358974301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7820512820512793</c:v>
+                  <c:v>13.619047619047601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.2661361626878</c:v>
+                  <c:v>20.420571765399298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.275650665124299</c:v>
+                  <c:v>20.644881434355099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.4610016420361</c:v>
+                  <c:v>21.3403119868637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.2297841752923</c:v>
+                  <c:v>22.080889391914798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.5339839984576</c:v>
+                  <c:v>22.2839592349574</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.845168790676899</c:v>
+                  <c:v>22.769881434355099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.0608311229</c:v>
+                  <c:v>24.6877269987524</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.4484154683791</c:v>
+                  <c:v>25.598349875573099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.983908378372899</c:v>
+                  <c:v>26.044642995641102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.132176152139799</c:v>
+                  <c:v>29.979179824007399</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.3830682475419</c:v>
+                  <c:v>30.8993075637812</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.195888760362401</c:v>
+                  <c:v>31.6177424108458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.9632057597574</c:v>
+                  <c:v>35.031786196259802</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.101444315917998</c:v>
+                  <c:v>38.726230640704301</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.3373015873015</c:v>
+                  <c:v>43.440455138730997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.6239316239316</c:v>
+                  <c:v>46.003968253968203</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.277763207754099</c:v>
+                  <c:v>50.352888465638003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.314902530419701</c:v>
+                  <c:v>51.128205128205103</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37.608782954291101</c:v>
+                  <c:v>100.470999282024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,10 +1561,10 @@
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>Doug HOUGH</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Mike HORNBY</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Doug HOUGH</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Demi ASTON</c:v>
@@ -1579,46 +1579,46 @@
                   <c:v>Marietta KEANE</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Adam LUNNON</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Jason CAWDRON</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Fiona ROCHE</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>Charlotte CURRIE</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>Adam LUNNON</c:v>
+                  <c:v>Chris NUTT</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Chris NUTT</c:v>
+                  <c:v>Gareth ELLIS</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Gareth ELLIS</c:v>
+                  <c:v>Justin ATKINSON</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Colin HUTCHINGS</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>Charlotte CURRIE</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Tharaka KOTHALAWALA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Justin ATKINSON</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Jake MASON</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>Kayleigh OCKELFORD</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>Amy MADDISON</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ian SIMPSON</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Daniel SCOTT</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Kayleigh OCKELFORD</c:v>
+                  <c:v>Ian SIMPSON</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Jimmy TARR</c:v>
@@ -1640,67 +1640,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>22.4</c:v>
+                  <c:v>22.089743589743499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.2717948717948</c:v>
+                  <c:v>20.285714285714199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.7741526672561</c:v>
+                  <c:v>40.217211906867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.360492577597803</c:v>
+                  <c:v>36.085907075380703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.358908045977003</c:v>
+                  <c:v>25.478243021346401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.912349341523502</c:v>
+                  <c:v>40.634205041782103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.460492577597797</c:v>
+                  <c:v>39.7905905346921</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.752520281694501</c:v>
+                  <c:v>39.144240408714097</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.589183613321502</c:v>
+                  <c:v>42.600017007594097</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.309786402345303</c:v>
+                  <c:v>44.775007700506698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.450546015790998</c:v>
+                  <c:v>34.3205050646066</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.0704701630291</c:v>
+                  <c:v>47.360435350090498</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.047885739991003</c:v>
+                  <c:v>60.1146921791658</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.002159244264497</c:v>
+                  <c:v>56.160271146478003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.329921898025304</c:v>
+                  <c:v>69.539478503952196</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.621603688708902</c:v>
+                  <c:v>60.100589615063299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.994444444444397</c:v>
+                  <c:v>57.817112963664698</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68.174358974358896</c:v>
+                  <c:v>72.670634920634896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86.966121814261498</c:v>
+                  <c:v>82.129546290571696</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>89.698791629826104</c:v>
+                  <c:v>99.076923076922995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>117.45401600819</c:v>
+                  <c:v>179.60893031650701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,7 +2621,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2687,7 +2687,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306537" cy="6082018"/>
+    <xdr:ext cx="9313333" cy="6085417"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3109,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -3261,48 +3261,48 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
         <v>4</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
-      <c r="V2">
-        <v>4</v>
-      </c>
-      <c r="AC2">
-        <v>4</v>
-      </c>
       <c r="AH2">
-        <v>22.4</v>
+        <v>22.089743589743499</v>
       </c>
       <c r="AI2">
-        <v>9.1746031746031704</v>
+        <v>12.858974358974301</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
+        <v>51</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="AC3">
+        <v>4</v>
+      </c>
       <c r="AH3">
-        <v>26.2717948717948</v>
+        <v>20.285714285714199</v>
       </c>
       <c r="AI3">
-        <v>9.7820512820512793</v>
+        <v>13.619047619047601</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -3325,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="AH4">
-        <v>27.7741526672561</v>
+        <v>40.217211906867</v>
       </c>
       <c r="AI4">
-        <v>10.2661361626878</v>
+        <v>20.420571765399298</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -3360,10 +3360,10 @@
         <v>2</v>
       </c>
       <c r="AH5">
-        <v>35.360492577597803</v>
+        <v>36.085907075380703</v>
       </c>
       <c r="AI5">
-        <v>13.275650665124299</v>
+        <v>20.644881434355099</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -3389,10 +3389,10 @@
         <v>2</v>
       </c>
       <c r="AH6">
-        <v>38.358908045977003</v>
+        <v>25.478243021346401</v>
       </c>
       <c r="AI6">
-        <v>13.4610016420361</v>
+        <v>21.3403119868637</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -3424,74 +3424,56 @@
         <v>2</v>
       </c>
       <c r="AH7">
-        <v>35.912349341523502</v>
+        <v>40.634205041782103</v>
       </c>
       <c r="AI7">
-        <v>14.2297841752923</v>
+        <v>22.080889391914798</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
       </c>
       <c r="AH8">
-        <v>38.460492577597797</v>
+        <v>39.7905905346921</v>
       </c>
       <c r="AI8">
-        <v>14.5339839984576</v>
+        <v>22.2839592349574</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -3499,121 +3481,154 @@
       <c r="AC9">
         <v>2</v>
       </c>
-      <c r="AG9">
-        <v>2</v>
-      </c>
       <c r="AH9">
-        <v>37.752520281694501</v>
+        <v>39.144240408714097</v>
       </c>
       <c r="AI9">
-        <v>14.845168790676899</v>
+        <v>22.769881434355099</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
       </c>
       <c r="AG10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH10">
-        <v>39.589183613321502</v>
+        <v>42.600017007594097</v>
       </c>
       <c r="AI10">
-        <v>15.0608311229</v>
+        <v>24.6877269987524</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
       </c>
       <c r="X11">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
       </c>
       <c r="AG11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>37.309786402345303</v>
+        <v>44.775007700506698</v>
       </c>
       <c r="AI11">
-        <v>16.4484154683791</v>
+        <v>25.598349875573099</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
       </c>
       <c r="X12">
-        <v>2</v>
-      </c>
-      <c r="AC12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH12">
-        <v>42.450546015790998</v>
+        <v>34.3205050646066</v>
       </c>
       <c r="AI12">
-        <v>16.983908378372899</v>
+        <v>26.044642995641102</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="V13">
-        <v>4</v>
-      </c>
-      <c r="X13">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH13">
-        <v>39.0704701630291</v>
+        <v>47.360435350090498</v>
       </c>
       <c r="AI13">
-        <v>17.132176152139799</v>
+        <v>29.979179824007399</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -3645,59 +3660,47 @@
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>46.047885739991003</v>
+        <v>60.1146921791658</v>
       </c>
       <c r="AI14">
-        <v>18.3830682475419</v>
+        <v>30.8993075637812</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
       </c>
       <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AG15">
+        <v>4</v>
       </c>
       <c r="AH15">
-        <v>51.002159244264497</v>
+        <v>56.160271146478003</v>
       </c>
       <c r="AI15">
-        <v>20.195888760362401</v>
+        <v>31.6177424108458</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -3708,23 +3711,20 @@
       <c r="M16">
         <v>2</v>
       </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>2</v>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>1</v>
       </c>
-      <c r="AG16">
-        <v>3</v>
-      </c>
       <c r="AH16">
-        <v>66.329921898025304</v>
+        <v>69.539478503952196</v>
       </c>
       <c r="AI16">
-        <v>22.9632057597574</v>
+        <v>35.031786196259802</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -3774,33 +3774,39 @@
         <v>1</v>
       </c>
       <c r="AH17">
-        <v>61.621603688708902</v>
+        <v>60.100589615063299</v>
       </c>
       <c r="AI17">
-        <v>26.101444315917998</v>
+        <v>38.726230640704301</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="D18">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>2</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>2</v>
-      </c>
-      <c r="Y18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>2</v>
@@ -3808,30 +3814,27 @@
       <c r="AE18">
         <v>2</v>
       </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
       <c r="AH18">
-        <v>80.994444444444397</v>
+        <v>57.817112963664698</v>
       </c>
       <c r="AI18">
-        <v>28.3373015873015</v>
+        <v>43.440455138730997</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="M19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="R19">
         <v>2</v>
       </c>
       <c r="V19">
@@ -3843,11 +3846,17 @@
       <c r="Y19">
         <v>2</v>
       </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AE19">
+        <v>2</v>
+      </c>
       <c r="AH19">
-        <v>68.174358974358896</v>
+        <v>72.670634920634896</v>
       </c>
       <c r="AI19">
-        <v>29.6239316239316</v>
+        <v>46.003968253968203</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -3903,54 +3912,45 @@
         <v>1</v>
       </c>
       <c r="AH20">
-        <v>86.966121814261498</v>
+        <v>82.129546290571696</v>
       </c>
       <c r="AI20">
-        <v>33.277763207754099</v>
+        <v>50.352888465638003</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
         <v>2</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <v>2</v>
       </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
       <c r="V21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="AC21">
-        <v>2</v>
-      </c>
-      <c r="AE21">
-        <v>2</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
       </c>
       <c r="AH21">
-        <v>89.698791629826104</v>
+        <v>99.076923076922995</v>
       </c>
       <c r="AI21">
-        <v>33.314902530419701</v>
+        <v>51.128205128205103</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="AH22">
-        <v>117.45401600819</v>
+        <v>179.60893031650701</v>
       </c>
       <c r="AI22">
-        <v>37.608782954291101</v>
+        <v>100.470999282024</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -4020,19 +4020,19 @@
         <v>5</v>
       </c>
       <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>55</v>
+      </c>
+      <c r="F23">
         <v>30</v>
       </c>
-      <c r="E23">
-        <v>15</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
       <c r="G23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I23">
         <v>25</v>
@@ -4041,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M23">
         <v>10</v>
@@ -4056,13 +4056,13 @@
         <v>5</v>
       </c>
       <c r="P23">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S23">
         <v>5</v>
@@ -4077,13 +4077,13 @@
         <v>10</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X23">
         <v>30</v>
       </c>
       <c r="Y23">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Z23">
         <v>10</v>
@@ -4098,16 +4098,16 @@
         <v>30</v>
       </c>
       <c r="AD23">
+        <v>50</v>
+      </c>
+      <c r="AE23">
+        <v>30</v>
+      </c>
+      <c r="AF23">
         <v>10</v>
       </c>
-      <c r="AE23">
-        <v>15</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
       <c r="AG23">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -4257,15 +4257,15 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
+        <v>1.5277777777777777</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>0.76923076923076927</v>
+        <v>2.3076923076923075</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -4285,11 +4285,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>1.1538461538461537</v>
+        <v>1.9230769230769231</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>5</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="W26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X26">
         <f t="shared" si="1"/>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="Y26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="Z26">
         <f t="shared" si="1"/>
@@ -4361,19 +4361,19 @@
       </c>
       <c r="AD26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AE26">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AF26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG26">
         <f t="shared" si="1"/>
-        <v>1.3793103448275863</v>
+        <v>2.0689655172413794</v>
       </c>
     </row>
   </sheetData>

--- a/Competition_Results.xlsx
+++ b/Competition_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy Tarr\Documents\WC18_pub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EC8B51F3-1F3B-44EA-8C41-42CBA1F1EFAA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C58502E1-5670-41B5-A3AC-1627D4B428D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="26820" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>5.5555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.5277777777777777</c:v>
@@ -996,7 +996,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.25</c:v>
@@ -1005,10 +1005,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9230769230769231</c:v>
+                  <c:v>3.4615384615384617</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.25</c:v>
@@ -1301,58 +1301,58 @@
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>Mike HORNBY</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Doug HOUGH</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mike HORNBY</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>Samuel ANDREWS</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Demi ASTON</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Gareth ELLIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Hellen FOSTER</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Samuel ANDREWS</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Marietta KEANE</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Adam LUNNON</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Jason CAWDRON</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Fiona ROCHE</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Chris NUTT</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Gareth ELLIS</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Justin ATKINSON</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Charlotte CURRIE</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tharaka KOTHALAWALA</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Colin HUTCHINGS</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>Charlotte CURRIE</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Tharaka KOTHALAWALA</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>Amy MADDISON</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Jake MASON</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Kayleigh OCKELFORD</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Amy MADDISON</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Daniel SCOTT</c:v>
@@ -1380,67 +1380,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>12.858974358974301</c:v>
+                  <c:v>13.619047619047601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.619047619047601</c:v>
+                  <c:v>19.0128205128205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.420571765399298</c:v>
+                  <c:v>21.3403119868637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.644881434355099</c:v>
+                  <c:v>25.035956380783901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.3403119868637</c:v>
+                  <c:v>26.044642995641102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.080889391914798</c:v>
+                  <c:v>27.6055651950388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.2839592349574</c:v>
+                  <c:v>28.3578124688378</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.769881434355099</c:v>
+                  <c:v>28.437805388803501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.6877269987524</c:v>
+                  <c:v>30.352787417261101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.598349875573099</c:v>
+                  <c:v>31.6484107594361</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.044642995641102</c:v>
+                  <c:v>34.781255858479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.979179824007399</c:v>
+                  <c:v>36.317641362468898</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.8993075637812</c:v>
+                  <c:v>38.017742410845798</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.6177424108458</c:v>
+                  <c:v>48.036914401388003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.031786196259802</c:v>
+                  <c:v>49.2651195295932</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.726230640704301</c:v>
+                  <c:v>50.448412698412703</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43.440455138730997</c:v>
+                  <c:v>50.7535810680547</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46.003968253968203</c:v>
+                  <c:v>51.645583343859201</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.352888465638003</c:v>
+                  <c:v>62.380238892988402</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.128205128205103</c:v>
+                  <c:v>67.538461538461505</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100.470999282024</c:v>
+                  <c:v>109.359888170913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,58 +1561,58 @@
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>Mike HORNBY</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Doug HOUGH</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mike HORNBY</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>Samuel ANDREWS</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Demi ASTON</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>Gareth ELLIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Hellen FOSTER</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Samuel ANDREWS</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Marietta KEANE</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Adam LUNNON</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Jason CAWDRON</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Fiona ROCHE</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Chris NUTT</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Gareth ELLIS</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Justin ATKINSON</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Charlotte CURRIE</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tharaka KOTHALAWALA</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Colin HUTCHINGS</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>Charlotte CURRIE</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Tharaka KOTHALAWALA</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>Amy MADDISON</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Jake MASON</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Kayleigh OCKELFORD</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Amy MADDISON</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Daniel SCOTT</c:v>
@@ -1640,67 +1640,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>22.089743589743499</c:v>
+                  <c:v>13.619047619047601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.285714285714199</c:v>
+                  <c:v>31.3205128205128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.217211906867</c:v>
+                  <c:v>21.3403119868637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.085907075380703</c:v>
+                  <c:v>34.266725611553198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.478243021346401</c:v>
+                  <c:v>26.044642995641102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.634205041782103</c:v>
+                  <c:v>41.526932716406399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.7905905346921</c:v>
+                  <c:v>40.911658622684001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.144240408714097</c:v>
+                  <c:v>40.745497696495804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.600017007594097</c:v>
+                  <c:v>45.518599383073003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.775007700506698</c:v>
+                  <c:v>45.569778280803597</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.3205050646066</c:v>
+                  <c:v>53.147067824291</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.360435350090498</c:v>
+                  <c:v>48.994564439392001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60.1146921791658</c:v>
+                  <c:v>50.817742410845803</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.160271146478003</c:v>
+                  <c:v>74.047170811644406</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>69.539478503952196</c:v>
+                  <c:v>85.996743461217093</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60.100589615063299</c:v>
+                  <c:v>59.337301587301504</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.817112963664698</c:v>
+                  <c:v>74.808281922755597</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72.670634920634896</c:v>
+                  <c:v>68.055839754115595</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>82.129546290571696</c:v>
+                  <c:v>86.434939747689199</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>99.076923076922995</c:v>
+                  <c:v>100.358974358974</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>179.60893031650701</c:v>
+                  <c:v>127.13766594869099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3261,158 +3261,149 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
+        <v>51</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="AC2">
+        <v>4</v>
+      </c>
       <c r="AH2">
-        <v>22.089743589743499</v>
+        <v>13.619047619047601</v>
       </c>
       <c r="AI2">
-        <v>12.858974358974301</v>
+        <v>13.619047619047601</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
         <v>4</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
-      <c r="V3">
-        <v>4</v>
-      </c>
-      <c r="AC3">
-        <v>4</v>
-      </c>
       <c r="AH3">
-        <v>20.285714285714199</v>
+        <v>31.3205128205128</v>
       </c>
       <c r="AI3">
-        <v>13.619047619047601</v>
+        <v>19.0128205128205</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="AE4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
       <c r="AG4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH4">
-        <v>40.217211906867</v>
+        <v>21.3403119868637</v>
       </c>
       <c r="AI4">
-        <v>20.420571765399298</v>
+        <v>21.3403119868637</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="K5">
         <v>3</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>2</v>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>3</v>
       </c>
       <c r="AH5">
-        <v>36.085907075380703</v>
+        <v>34.266725611553198</v>
       </c>
       <c r="AI5">
-        <v>20.644881434355099</v>
+        <v>25.035956380783901</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
       </c>
       <c r="V6">
-        <v>3</v>
-      </c>
-      <c r="W6">
-        <v>3</v>
-      </c>
-      <c r="AC6">
         <v>4</v>
       </c>
-      <c r="AE6">
-        <v>3</v>
+      <c r="X6">
+        <v>4</v>
       </c>
       <c r="AG6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH6">
-        <v>25.478243021346401</v>
+        <v>26.044642995641102</v>
       </c>
       <c r="AI6">
-        <v>21.3403119868637</v>
+        <v>26.044642995641102</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -3420,101 +3411,92 @@
       <c r="AC7">
         <v>2</v>
       </c>
-      <c r="AG7">
-        <v>2</v>
-      </c>
       <c r="AH7">
-        <v>40.634205041782103</v>
+        <v>41.526932716406399</v>
       </c>
       <c r="AI7">
-        <v>22.080889391914798</v>
+        <v>27.6055651950388</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
       </c>
       <c r="AG8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH8">
-        <v>39.7905905346921</v>
+        <v>40.911658622684001</v>
       </c>
       <c r="AI8">
-        <v>22.2839592349574</v>
+        <v>28.3578124688378</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
       </c>
       <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AG9">
+        <v>4</v>
       </c>
       <c r="AH9">
-        <v>39.144240408714097</v>
+        <v>40.745497696495804</v>
       </c>
       <c r="AI9">
-        <v>22.769881434355099</v>
+        <v>28.437805388803501</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -3522,29 +3504,29 @@
       <c r="AC10">
         <v>2</v>
       </c>
-      <c r="AG10">
-        <v>2</v>
-      </c>
       <c r="AH10">
-        <v>42.600017007594097</v>
+        <v>45.518599383073003</v>
       </c>
       <c r="AI10">
-        <v>24.6877269987524</v>
+        <v>30.352787417261101</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="K11">
         <v>1</v>
       </c>
@@ -3554,43 +3536,61 @@
       <c r="M11">
         <v>2</v>
       </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
       <c r="X11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>2</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH11">
-        <v>44.775007700506698</v>
+        <v>45.569778280803597</v>
       </c>
       <c r="AI11">
-        <v>25.598349875573099</v>
+        <v>31.6484107594361</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="V12">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
       </c>
       <c r="AG12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>34.3205050646066</v>
+        <v>53.147067824291</v>
       </c>
       <c r="AI12">
-        <v>26.044642995641102</v>
+        <v>34.781255858479</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -3625,88 +3625,91 @@
         <v>3</v>
       </c>
       <c r="AH13">
-        <v>47.360435350090498</v>
+        <v>48.994564439392001</v>
       </c>
       <c r="AI13">
-        <v>29.979179824007399</v>
+        <v>36.317641362468898</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+        <v>46</v>
+      </c>
+      <c r="E14">
         <v>4</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
+      <c r="F14">
+        <v>4</v>
       </c>
       <c r="L14">
         <v>4</v>
       </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
+      <c r="AG14">
+        <v>4</v>
       </c>
       <c r="AH14">
-        <v>60.1146921791658</v>
+        <v>50.817742410845803</v>
       </c>
       <c r="AI14">
-        <v>30.8993075637812</v>
+        <v>38.017742410845798</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="AG15">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>56.160271146478003</v>
+        <v>74.047170811644406</v>
       </c>
       <c r="AI15">
-        <v>31.6177424108458</v>
+        <v>48.036914401388003</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16">
         <v>2</v>
@@ -3714,88 +3717,76 @@
       <c r="X16">
         <v>1</v>
       </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
       <c r="AC16">
         <v>1</v>
       </c>
       <c r="AH16">
-        <v>69.539478503952196</v>
+        <v>85.996743461217093</v>
       </c>
       <c r="AI16">
-        <v>35.031786196259802</v>
+        <v>49.2651195295932</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
         <v>2</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH17">
-        <v>60.100589615063299</v>
+        <v>59.337301587301504</v>
       </c>
       <c r="AI17">
-        <v>38.726230640704301</v>
+        <v>50.448412698412703</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>2</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
       <c r="K18">
         <v>1</v>
       </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
       <c r="M18">
         <v>2</v>
       </c>
@@ -3808,43 +3799,49 @@
       <c r="W18">
         <v>1</v>
       </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
       <c r="AC18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>2</v>
-      </c>
-      <c r="AG18">
         <v>1</v>
       </c>
       <c r="AH18">
-        <v>57.817112963664698</v>
+        <v>74.808281922755597</v>
       </c>
       <c r="AI18">
-        <v>43.440455138730997</v>
+        <v>50.7535810680547</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="M19">
         <v>2</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>2</v>
-      </c>
-      <c r="Y19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>2</v>
@@ -3852,11 +3849,14 @@
       <c r="AE19">
         <v>2</v>
       </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
       <c r="AH19">
-        <v>72.670634920634896</v>
+        <v>68.055839754115595</v>
       </c>
       <c r="AI19">
-        <v>46.003968253968203</v>
+        <v>51.645583343859201</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -3912,10 +3912,10 @@
         <v>1</v>
       </c>
       <c r="AH20">
-        <v>82.129546290571696</v>
+        <v>86.434939747689199</v>
       </c>
       <c r="AI20">
-        <v>50.352888465638003</v>
+        <v>62.380238892988402</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -3947,10 +3947,10 @@
         <v>2</v>
       </c>
       <c r="AH21">
-        <v>99.076923076922995</v>
+        <v>100.358974358974</v>
       </c>
       <c r="AI21">
-        <v>51.128205128205103</v>
+        <v>67.538461538461505</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="AH22">
-        <v>179.60893031650701</v>
+        <v>127.13766594869099</v>
       </c>
       <c r="AI22">
-        <v>100.470999282024</v>
+        <v>109.359888170913</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -4020,7 +4020,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>55</v>
@@ -4032,7 +4032,7 @@
         <v>5</v>
       </c>
       <c r="H23">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <v>25</v>
@@ -4041,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M23">
         <v>10</v>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
@@ -4285,11 +4285,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>1.9230769230769231</v>
+        <v>3.4615384615384617</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
